--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -646,12 +646,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,7 +691,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,21 +728,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1042,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1050,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1075,46 +1069,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1139,7 +1133,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1156,99 +1150,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,12 +1261,12 @@
       <c r="E6" s="39">
         <v>861694031100884</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="58" t="s">
         <v>75</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1299,14 +1293,14 @@
         <v>36</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="65"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="67"/>
+      <c r="W6" s="65"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1316,10 +1310,10 @@
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="40"/>
@@ -1330,12 +1324,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="67"/>
+      <c r="W7" s="65"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1345,10 +1339,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="1"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
@@ -1359,12 +1353,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="67"/>
+      <c r="W8" s="65"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1388,12 +1382,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="67"/>
+      <c r="W9" s="65"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1403,13 +1397,13 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="1"/>
       <c r="I10" s="50"/>
       <c r="J10" s="1"/>
       <c r="K10" s="40"/>
-      <c r="L10" s="65"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="40"/>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
@@ -1417,12 +1411,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="67"/>
+      <c r="W10" s="65"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1432,10 +1426,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -1446,12 +1440,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="67"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1464,7 +1458,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1475,14 +1469,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="65"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="67"/>
+      <c r="W12" s="65"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1492,7 +1486,7 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
@@ -1506,12 +1500,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="67"/>
+      <c r="W13" s="65"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1535,12 +1529,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="67"/>
+      <c r="W14" s="65"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1550,7 +1544,7 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
       <c r="I15" s="50"/>
@@ -1565,11 +1559,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="67"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1579,10 +1573,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1594,11 +1588,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="67"/>
+      <c r="W16" s="65"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1611,7 +1605,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -1623,9 +1617,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="65"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="67"/>
+      <c r="W17" s="65"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1635,10 +1629,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1661,11 +1655,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1677,7 +1671,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="66" t="s">
+      <c r="U19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1696,7 +1690,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1728,7 +1722,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1760,7 +1754,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1792,7 +1786,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1819,7 +1813,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1846,7 +1840,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1858,7 +1852,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="66" t="s">
+      <c r="U25" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -1877,7 +1871,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1909,7 +1903,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1941,7 +1935,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -1973,7 +1967,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2005,7 +1999,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2037,7 +2031,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2069,7 +2063,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2101,7 +2095,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2133,7 +2127,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2165,7 +2159,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2197,7 +2191,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2229,7 +2223,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2261,7 +2255,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2288,7 +2282,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2315,7 +2309,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2347,7 +2341,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2379,7 +2373,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2406,7 +2400,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2433,7 +2427,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2469,7 +2463,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2508,7 +2502,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2547,7 +2541,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2586,7 +2580,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2628,7 +2622,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2656,7 +2650,7 @@
       <c r="F50" s="45"/>
       <c r="G50" s="45"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2684,7 +2678,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2712,7 +2706,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2740,7 +2734,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2768,7 +2762,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2796,7 +2790,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2825,13 +2819,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2843,6 +2830,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2853,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2867,7 +2861,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -2886,46 +2880,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -2950,7 +2944,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -2967,99 +2961,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3078,12 +3072,12 @@
       <c r="E6" s="39">
         <v>868345031037450</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="58" t="s">
         <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -3112,14 +3106,14 @@
       <c r="S6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="65"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="67"/>
+      <c r="W6" s="65"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3137,12 +3131,12 @@
       <c r="E7" s="39">
         <v>868345031040678</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="1" t="s">
         <v>76</v>
       </c>
@@ -3165,12 +3159,12 @@
         <v>30</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="67"/>
+      <c r="W7" s="65"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3180,10 +3174,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="1"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
@@ -3194,12 +3188,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="67"/>
+      <c r="W8" s="65"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3223,12 +3217,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="67"/>
+      <c r="W9" s="65"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3238,13 +3232,13 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="1"/>
       <c r="I10" s="50"/>
       <c r="J10" s="1"/>
       <c r="K10" s="40"/>
-      <c r="L10" s="65"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="40"/>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
@@ -3252,12 +3246,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="67"/>
+      <c r="W10" s="65"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3267,10 +3261,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -3281,12 +3275,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="67"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3299,7 +3293,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3310,14 +3304,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="65"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="67"/>
+      <c r="W12" s="65"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3327,7 +3321,7 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
@@ -3341,12 +3335,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="67"/>
+      <c r="W13" s="65"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3370,12 +3364,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="67"/>
+      <c r="W14" s="65"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3385,7 +3379,7 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
       <c r="I15" s="50"/>
@@ -3400,11 +3394,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="67"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3414,10 +3408,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3429,11 +3423,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="67"/>
+      <c r="W16" s="65"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3446,7 +3440,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -3458,9 +3452,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="65"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="67"/>
+      <c r="W17" s="65"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3470,10 +3464,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3496,11 +3490,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3512,7 +3506,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="66" t="s">
+      <c r="U19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3531,7 +3525,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3563,7 +3557,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3595,7 +3589,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3627,7 +3621,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3654,7 +3648,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3681,7 +3675,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3693,7 +3687,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="66" t="s">
+      <c r="U25" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -3712,7 +3706,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3744,7 +3738,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -3776,7 +3770,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -3808,7 +3802,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -3840,7 +3834,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3872,7 +3866,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3904,7 +3898,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3936,7 +3930,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3968,7 +3962,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4000,7 +3994,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4032,7 +4026,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4064,7 +4058,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4096,7 +4090,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4123,7 +4117,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4150,7 +4144,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4182,7 +4176,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4214,7 +4208,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4241,7 +4235,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4268,7 +4262,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4304,7 +4298,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4343,7 +4337,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4382,7 +4376,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4421,7 +4415,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4463,7 +4457,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4491,7 +4485,7 @@
       <c r="F50" s="45"/>
       <c r="G50" s="45"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4519,7 +4513,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4547,7 +4541,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4575,7 +4569,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4603,7 +4597,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4631,7 +4625,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4660,13 +4654,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4678,6 +4665,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4688,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4702,7 +4696,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -4721,46 +4715,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -4785,7 +4779,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -4802,99 +4796,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,12 +4907,12 @@
       <c r="E6" s="39">
         <v>867717030632468</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -4947,14 +4941,14 @@
         <v>82</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="52"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4964,10 +4958,10 @@
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="40"/>
@@ -4978,12 +4972,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4993,10 +4987,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="1"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
@@ -5007,12 +5001,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5036,12 +5030,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5051,13 +5045,13 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="1"/>
       <c r="I10" s="50"/>
       <c r="J10" s="1"/>
       <c r="K10" s="40"/>
-      <c r="L10" s="65"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="40"/>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
@@ -5065,12 +5059,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5080,10 +5074,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -5094,12 +5088,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5112,7 +5106,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -5123,14 +5117,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5140,7 +5134,7 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
@@ -5154,12 +5148,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5183,12 +5177,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5198,7 +5192,7 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
       <c r="I15" s="50"/>
@@ -5213,11 +5207,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5227,10 +5221,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -5242,11 +5236,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5259,7 +5253,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -5271,9 +5265,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="52"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5283,10 +5277,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -5309,11 +5303,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5325,7 +5319,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="51" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -5344,7 +5338,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5376,7 +5370,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5408,7 +5402,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -5440,7 +5434,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -5467,7 +5461,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -5494,7 +5488,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -5506,7 +5500,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="51" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -5525,7 +5519,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -5557,7 +5551,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -5589,7 +5583,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -5621,7 +5615,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -5653,7 +5647,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5685,7 +5679,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5717,7 +5711,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5749,7 +5743,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5781,7 +5775,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5813,7 +5807,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5845,7 +5839,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5877,7 +5871,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5909,7 +5903,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5936,7 +5930,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5963,7 +5957,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -5995,7 +5989,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -6027,7 +6021,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -6054,7 +6048,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -6081,7 +6075,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6117,7 +6111,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6156,7 +6150,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6195,7 +6189,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6234,7 +6228,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6276,7 +6270,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6304,7 +6298,7 @@
       <c r="F50" s="45"/>
       <c r="G50" s="45"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -6332,7 +6326,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6360,7 +6354,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -6388,7 +6382,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -6416,7 +6410,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -6444,7 +6438,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -6473,13 +6467,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6491,6 +6478,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6501,8 +6495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6534,43 +6528,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6615,58 +6609,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6691,49 +6685,77 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="B6" s="37">
+        <v>44536</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44536</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>867717030632468</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="62"/>
+      <c r="I6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>82</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6745,26 +6767,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="B7" s="37">
+        <v>44536</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44536</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868345031037450</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6774,26 +6824,48 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44536</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44536</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868345031040678</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6803,26 +6875,52 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="B9" s="37">
+        <v>44536</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44536</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="39">
+        <v>861694031100884</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="62"/>
+      <c r="I9" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>65</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6851,7 +6949,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6880,7 +6978,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6909,7 +7007,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6940,7 +7038,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6969,7 +7067,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6998,7 +7096,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7027,7 +7125,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7146,7 +7244,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7178,7 +7276,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7210,7 +7308,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7487,7 +7585,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7583,7 +7681,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -7615,7 +7713,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7679,7 +7777,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -7797,7 +7895,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -8258,13 +8356,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8276,6 +8367,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_GiaThanh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang12\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang12\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -292,6 +292,54 @@
   </si>
   <si>
     <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán GPS Tây Ninh</t>
+  </si>
+  <si>
+    <t>20/12/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Không nhận bảo hành</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15353</t>
+  </si>
+  <si>
+    <t>Lcok: 125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
   </si>
 </sst>
 </file>
@@ -2847,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3170,23 +3218,51 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="D8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="39">
+        <v>866192037786769</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
       <c r="U8" s="67"/>
@@ -3590,7 +3666,9 @@
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
       <c r="I22" s="58"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
       <c r="M22" s="10"/>
@@ -3606,7 +3684,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3883,7 +3961,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4011,7 +4089,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4075,7 +4153,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4682,8 +4760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4954,23 +5032,47 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>867857039940544</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="58"/>
+      <c r="I7" s="58" t="s">
+        <v>94</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
       <c r="U7" s="67"/>
@@ -4983,23 +5085,49 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>867857039913350</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>98</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
       <c r="U8" s="67"/>
@@ -5012,23 +5140,47 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183035860894</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
+      <c r="G9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>91</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
       <c r="U9" s="67"/>
@@ -5355,7 +5507,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5728,7 +5880,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -5824,7 +5976,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5856,7 +6008,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -5888,7 +6040,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6006,7 +6158,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6496,7 +6648,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:R9"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>31/12/21</t>
   </si>
 </sst>
 </file>
@@ -739,22 +742,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,6 +764,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R6"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1117,43 +1120,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1198,58 +1201,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1274,23 +1277,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1342,7 +1345,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1373,7 +1376,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1405,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1434,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1460,7 +1463,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1492,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1521,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1549,7 +1552,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1581,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1607,7 +1610,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1639,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2867,6 +2870,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2878,13 +2888,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2896,7 +2899,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2928,43 +2931,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -3009,58 +3012,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3085,23 +3088,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3155,7 +3158,7 @@
         <v>79</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3208,7 +3211,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3221,7 +3224,9 @@
       <c r="B8" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>70</v>
       </c>
@@ -3265,7 +3270,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3299,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3323,7 +3328,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3352,7 +3357,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3381,7 +3386,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3412,7 +3417,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3441,7 +3446,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3470,7 +3475,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3499,7 +3504,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4732,6 +4737,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4743,13 +4755,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4760,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4793,43 +4798,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -4874,58 +4879,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
@@ -4950,23 +4955,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,7 +5025,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5035,7 +5040,9 @@
       <c r="B7" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -5075,7 +5082,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5088,7 +5095,9 @@
       <c r="B8" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -5130,7 +5139,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5143,7 +5152,9 @@
       <c r="B9" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -5183,7 +5194,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5212,7 +5223,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5241,7 +5252,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5270,7 +5281,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5301,7 +5312,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5330,7 +5341,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5359,7 +5370,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5388,7 +5399,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6619,6 +6630,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6630,13 +6648,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6647,7 +6658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -6680,43 +6691,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6761,58 +6772,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6837,23 +6848,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6907,7 +6918,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6966,7 +6977,7 @@
         <v>79</v>
       </c>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7017,7 +7028,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7072,7 +7083,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7101,7 +7112,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7130,7 +7141,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7159,7 +7170,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7190,7 +7201,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7219,7 +7230,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7248,7 +7259,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7277,7 +7288,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8508,6 +8519,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8519,13 +8537,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
